--- a/Code/Results/Cases/Case_0_247/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_247/res_line/pl_mw.xlsx
@@ -424,28 +424,28 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.01962606456515914</v>
+        <v>0.006403796807916251</v>
       </c>
       <c r="D2">
-        <v>0.1364521209962106</v>
+        <v>0.230110852657134</v>
       </c>
       <c r="E2">
-        <v>0.1542679940426304</v>
+        <v>0.1733927365998476</v>
       </c>
       <c r="F2">
-        <v>1.333885572714649</v>
+        <v>1.119256496137453</v>
       </c>
       <c r="G2">
-        <v>1.052166218488665</v>
+        <v>0.6172754033872252</v>
       </c>
       <c r="H2">
-        <v>0.5654695191386736</v>
+        <v>0.6451706849114487</v>
       </c>
       <c r="I2">
-        <v>0.8002792359095778</v>
+        <v>0.5624574055654961</v>
       </c>
       <c r="J2">
-        <v>0.2121059360334243</v>
+        <v>0.1800749562412989</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -457,10 +457,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>7.66312166460591</v>
+        <v>2.873581687696344</v>
       </c>
       <c r="O2">
-        <v>3.367321455222566</v>
+        <v>2.506829514151661</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,28 +471,28 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.01703626277236125</v>
+        <v>0.00560789120331151</v>
       </c>
       <c r="D3">
-        <v>0.1261250233169093</v>
+        <v>0.2288708407612177</v>
       </c>
       <c r="E3">
-        <v>0.1383647276401199</v>
+        <v>0.1704818582526286</v>
       </c>
       <c r="F3">
-        <v>1.179329685780743</v>
+        <v>1.08621936351328</v>
       </c>
       <c r="G3">
-        <v>0.9186100593240241</v>
+        <v>0.5855465827598323</v>
       </c>
       <c r="H3">
-        <v>0.5076915398487074</v>
+        <v>0.6344879103896659</v>
       </c>
       <c r="I3">
-        <v>0.7027830218376963</v>
+        <v>0.5403325584105687</v>
       </c>
       <c r="J3">
-        <v>0.1875022668460815</v>
+        <v>0.1749525151808271</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -504,10 +504,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>6.74968365211538</v>
+        <v>2.562605684679454</v>
       </c>
       <c r="O3">
-        <v>2.962819850401161</v>
+        <v>2.416823902178777</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,28 +518,28 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.01545375050806541</v>
+        <v>0.005117407016864917</v>
       </c>
       <c r="D4">
-        <v>0.1199561620909506</v>
+        <v>0.2282076702264249</v>
       </c>
       <c r="E4">
-        <v>0.1288100020272758</v>
+        <v>0.1687872790564349</v>
       </c>
       <c r="F4">
-        <v>1.08614270720598</v>
+        <v>1.06658017747624</v>
       </c>
       <c r="G4">
-        <v>0.8378786097028694</v>
+        <v>0.5664367015796472</v>
       </c>
       <c r="H4">
-        <v>0.4729719236215857</v>
+        <v>0.6282672455485283</v>
       </c>
       <c r="I4">
-        <v>0.6439081385830789</v>
+        <v>0.5270823313488435</v>
       </c>
       <c r="J4">
-        <v>0.172687084530402</v>
+        <v>0.1719137970435156</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -551,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>6.187481969423061</v>
+        <v>2.371325805375761</v>
       </c>
       <c r="O4">
-        <v>2.718720740370458</v>
+        <v>2.363042203959907</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,28 +565,28 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.01481039683965335</v>
+        <v>0.004917077860181251</v>
       </c>
       <c r="D5">
-        <v>0.1174827783789851</v>
+        <v>0.2279621468700697</v>
       </c>
       <c r="E5">
-        <v>0.1249647294368863</v>
+        <v>0.1681200324150822</v>
       </c>
       <c r="F5">
-        <v>1.048557728226314</v>
+        <v>1.058739344460022</v>
       </c>
       <c r="G5">
-        <v>0.8052652632513997</v>
+        <v>0.5587425543045583</v>
       </c>
       <c r="H5">
-        <v>0.458997651516782</v>
+        <v>0.6258174501460019</v>
       </c>
       <c r="I5">
-        <v>0.6201395372169074</v>
+        <v>0.5217667888827435</v>
       </c>
       <c r="J5">
-        <v>0.1667160712185449</v>
+        <v>0.1707022290644034</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>5.958052239810286</v>
+        <v>2.293303068607429</v>
       </c>
       <c r="O5">
-        <v>2.620214462438497</v>
+        <v>2.341498059993626</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,28 +612,28 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.01470365009149432</v>
+        <v>0.004883785960444698</v>
       </c>
       <c r="D6">
-        <v>0.1170744414886542</v>
+        <v>0.2279228720741955</v>
       </c>
       <c r="E6">
-        <v>0.1243290207955035</v>
+        <v>0.1680106442375404</v>
       </c>
       <c r="F6">
-        <v>1.042339149849511</v>
+        <v>1.057447179963972</v>
       </c>
       <c r="G6">
-        <v>0.799866106018456</v>
+        <v>0.5574705755689706</v>
       </c>
       <c r="H6">
-        <v>0.4566873119652257</v>
+        <v>0.6254158088869843</v>
       </c>
       <c r="I6">
-        <v>0.6162055667925301</v>
+        <v>0.5208892200426121</v>
       </c>
       <c r="J6">
-        <v>0.1657283958390892</v>
+        <v>0.1705026626185386</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -645,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>5.919936152110608</v>
+        <v>2.280343261403573</v>
       </c>
       <c r="O6">
-        <v>2.603912923378488</v>
+        <v>2.337943149268625</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,28 +659,28 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.01544506830606096</v>
+        <v>0.005114707143540898</v>
       </c>
       <c r="D7">
-        <v>0.1199226448353627</v>
+        <v>0.2282042588650839</v>
       </c>
       <c r="E7">
-        <v>0.1287579532146204</v>
+        <v>0.1687781859671063</v>
       </c>
       <c r="F7">
-        <v>1.085634298140477</v>
+        <v>1.066473776248586</v>
       </c>
       <c r="G7">
-        <v>0.837437663449478</v>
+        <v>0.5663325581709415</v>
       </c>
       <c r="H7">
-        <v>0.4727827764820063</v>
+        <v>0.6282338618372876</v>
       </c>
       <c r="I7">
-        <v>0.6435867144619962</v>
+        <v>0.5270103039531904</v>
       </c>
       <c r="J7">
-        <v>0.1726062979046574</v>
+        <v>0.1718973492214459</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>6.184389112219776</v>
+        <v>2.370273851395496</v>
       </c>
       <c r="O7">
-        <v>2.71738847490181</v>
+        <v>2.362750145009358</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,28 +706,28 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.01873127590614132</v>
+        <v>0.006129739967860814</v>
       </c>
       <c r="D8">
-        <v>0.1328539086678688</v>
+        <v>0.2296629320517383</v>
       </c>
       <c r="E8">
-        <v>0.1487382140461619</v>
+        <v>0.1723698189764029</v>
       </c>
       <c r="F8">
-        <v>1.280214222201977</v>
+        <v>1.107731204184702</v>
       </c>
       <c r="G8">
-        <v>1.005830380143081</v>
+        <v>0.606258023174135</v>
       </c>
       <c r="H8">
-        <v>0.5453807881734463</v>
+        <v>0.6414170012355669</v>
       </c>
       <c r="I8">
-        <v>0.7664418244421967</v>
+        <v>0.5547592695330081</v>
       </c>
       <c r="J8">
-        <v>0.2035577038426624</v>
+        <v>0.1782866114387289</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -739,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>7.348453399592813</v>
+        <v>2.766433886209654</v>
       </c>
       <c r="O8">
-        <v>3.22689732935612</v>
+        <v>2.475487718664709</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,28 +753,28 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.02525488195579584</v>
+        <v>0.008106133743240207</v>
       </c>
       <c r="D9">
-        <v>0.1597121884053792</v>
+        <v>0.2333016362265568</v>
       </c>
       <c r="E9">
-        <v>0.1898015697378241</v>
+        <v>0.1801494517381812</v>
       </c>
       <c r="F9">
-        <v>1.677350818635674</v>
+        <v>1.19377010631348</v>
       </c>
       <c r="G9">
-        <v>1.347836228098203</v>
+        <v>0.6875148270819125</v>
       </c>
       <c r="H9">
-        <v>0.6945242645961116</v>
+        <v>0.6699565692533156</v>
       </c>
       <c r="I9">
-        <v>1.01642636797969</v>
+        <v>0.6118365369392933</v>
       </c>
       <c r="J9">
-        <v>0.2669096311767589</v>
+        <v>0.1916635588980853</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>9.620230281550789</v>
+        <v>3.540180268007646</v>
       </c>
       <c r="O9">
-        <v>4.265110199506864</v>
+        <v>2.708356419458028</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,28 +800,28 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.03012429179844389</v>
+        <v>0.009549956766697676</v>
       </c>
       <c r="D10">
-        <v>0.1805635264907721</v>
+        <v>0.2364487660971122</v>
       </c>
       <c r="E10">
-        <v>0.2214454328504942</v>
+        <v>0.1863161131496511</v>
       </c>
       <c r="F10">
-        <v>1.981631596224872</v>
+        <v>1.260133648751889</v>
       </c>
       <c r="G10">
-        <v>1.608857020923267</v>
+        <v>0.7490460878954934</v>
       </c>
       <c r="H10">
-        <v>0.8094125914019799</v>
+        <v>0.6925673311482115</v>
       </c>
       <c r="I10">
-        <v>1.207472914933092</v>
+        <v>0.6554091411255314</v>
       </c>
       <c r="J10">
-        <v>0.3155930331531636</v>
+        <v>0.2020134014543089</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>11.28258838837513</v>
+        <v>4.10623028343673</v>
       </c>
       <c r="O10">
-        <v>5.059606198119809</v>
+        <v>2.886696899377966</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,28 +847,28 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.03236286667691246</v>
+        <v>0.01020508346777405</v>
       </c>
       <c r="D11">
-        <v>0.1903419024116459</v>
+        <v>0.23798325338295</v>
       </c>
       <c r="E11">
-        <v>0.2362412930696252</v>
+        <v>0.1892198975435875</v>
       </c>
       <c r="F11">
-        <v>2.123510823174229</v>
+        <v>1.291013430937312</v>
       </c>
       <c r="G11">
-        <v>1.730347411152792</v>
+        <v>0.7774419290807373</v>
       </c>
       <c r="H11">
-        <v>0.8631213942634588</v>
+        <v>0.7032114214596277</v>
       </c>
       <c r="I11">
-        <v>1.296442731446348</v>
+        <v>0.6755907234695968</v>
       </c>
       <c r="J11">
-        <v>0.338332175822373</v>
+        <v>0.2068362859218951</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>12.03742316731751</v>
+        <v>4.363110593465422</v>
       </c>
       <c r="O11">
-        <v>5.429869467823664</v>
+        <v>2.969418359925953</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,28 +894,28 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.03321452804954816</v>
+        <v>0.01045292532636211</v>
       </c>
       <c r="D12">
-        <v>0.194091360594129</v>
+        <v>0.2385790925780924</v>
       </c>
       <c r="E12">
-        <v>0.2419090570114264</v>
+        <v>0.1903336766724024</v>
       </c>
       <c r="F12">
-        <v>2.177801897100423</v>
+        <v>1.302806358558584</v>
       </c>
       <c r="G12">
-        <v>1.776805665614063</v>
+        <v>0.7882532541530907</v>
       </c>
       <c r="H12">
-        <v>0.8836938801844951</v>
+        <v>0.7072936193178236</v>
       </c>
       <c r="I12">
-        <v>1.330471298010622</v>
+        <v>0.6832849390733458</v>
       </c>
       <c r="J12">
-        <v>0.3470398068301535</v>
+        <v>0.2086791464770243</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>12.32306348037548</v>
+        <v>4.460285735714251</v>
       </c>
       <c r="O12">
-        <v>5.571527449186078</v>
+        <v>3.000972727489909</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,28 +941,28 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.03303092147901765</v>
+        <v>0.01039955883162946</v>
       </c>
       <c r="D13">
-        <v>0.1932816997921378</v>
+        <v>0.2384501118139468</v>
       </c>
       <c r="E13">
-        <v>0.2406853940052116</v>
+        <v>0.1900931736462894</v>
       </c>
       <c r="F13">
-        <v>2.16608310480737</v>
+        <v>1.300262116966209</v>
       </c>
       <c r="G13">
-        <v>1.766778961078955</v>
+        <v>0.7859222396498353</v>
       </c>
       <c r="H13">
-        <v>0.8792523695326793</v>
+        <v>0.7064121542274222</v>
       </c>
       <c r="I13">
-        <v>1.323126924831698</v>
+        <v>0.6816255428246905</v>
       </c>
       <c r="J13">
-        <v>0.3451599611294114</v>
+        <v>0.2082815171670092</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>12.2615545799186</v>
+        <v>4.439361943450422</v>
       </c>
       <c r="O13">
-        <v>5.540951523195474</v>
+        <v>2.994166714265816</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,28 +988,28 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.03243285043981103</v>
+        <v>0.01022547838171306</v>
       </c>
       <c r="D14">
-        <v>0.1906494116751247</v>
+        <v>0.238031977726834</v>
       </c>
       <c r="E14">
-        <v>0.2367062390027854</v>
+        <v>0.1893112446014342</v>
       </c>
       <c r="F14">
-        <v>2.127965663838353</v>
+        <v>1.291981648967194</v>
       </c>
       <c r="G14">
-        <v>1.734160146151766</v>
+        <v>0.7783302109860131</v>
       </c>
       <c r="H14">
-        <v>0.8648090535184281</v>
+        <v>0.7035462340550964</v>
       </c>
       <c r="I14">
-        <v>1.299235266156799</v>
+        <v>0.6762226907580953</v>
       </c>
       <c r="J14">
-        <v>0.3390465474962383</v>
+        <v>0.2069875674365846</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1021,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>12.06092695796559</v>
+        <v>4.371107314139522</v>
       </c>
       <c r="O14">
-        <v>5.441493683473254</v>
+        <v>2.97200975396953</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,28 +1035,28 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.03206704882546774</v>
+        <v>0.01011881778805446</v>
       </c>
       <c r="D15">
-        <v>0.1890432671140587</v>
+        <v>0.2377777802140173</v>
       </c>
       <c r="E15">
-        <v>0.2342775689435044</v>
+        <v>0.188834137283223</v>
       </c>
       <c r="F15">
-        <v>2.104693235455983</v>
+        <v>1.286922574371943</v>
       </c>
       <c r="G15">
-        <v>1.71424088707974</v>
+        <v>0.7736874903795297</v>
       </c>
       <c r="H15">
-        <v>0.8559934173959789</v>
+        <v>0.7017974830692708</v>
       </c>
       <c r="I15">
-        <v>1.284646190947967</v>
+        <v>0.6729200480567812</v>
       </c>
       <c r="J15">
-        <v>0.3353148745571986</v>
+        <v>0.2061971411045818</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>11.93801081193664</v>
+        <v>4.329286057409945</v>
       </c>
       <c r="O15">
-        <v>5.380766863922815</v>
+        <v>2.958467881712068</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,28 +1082,28 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.02997851697048048</v>
+        <v>0.00950710902657903</v>
       </c>
       <c r="D16">
-        <v>0.1799307554861258</v>
+        <v>0.2363505509288757</v>
       </c>
       <c r="E16">
-        <v>0.2204871600958356</v>
+        <v>0.1861283276523835</v>
       </c>
       <c r="F16">
-        <v>1.972434665343982</v>
+        <v>1.258129489543307</v>
       </c>
       <c r="G16">
-        <v>1.600977436909545</v>
+        <v>0.7471985191326098</v>
       </c>
       <c r="H16">
-        <v>0.8059338722566451</v>
+        <v>0.6918789240660317</v>
       </c>
       <c r="I16">
-        <v>1.201703448159691</v>
+        <v>0.6540974831536914</v>
       </c>
       <c r="J16">
-        <v>0.3141198699824059</v>
+        <v>0.2017005264407175</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>11.23323027560724</v>
+        <v>4.089429168003562</v>
       </c>
       <c r="O16">
-        <v>5.035601217690498</v>
+        <v>2.881322956879842</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,28 +1129,28 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.02870368295259595</v>
+        <v>0.009131416756979149</v>
       </c>
       <c r="D17">
-        <v>0.1744186258096221</v>
+        <v>0.2355013134694843</v>
       </c>
       <c r="E17">
-        <v>0.2121348224915849</v>
+        <v>0.1844936458195647</v>
       </c>
       <c r="F17">
-        <v>1.892230289843226</v>
+        <v>1.240642838012093</v>
       </c>
       <c r="G17">
-        <v>1.532237379332429</v>
+        <v>0.7310522582826877</v>
       </c>
       <c r="H17">
-        <v>0.7756121274908594</v>
+        <v>0.6858859766674641</v>
       </c>
       <c r="I17">
-        <v>1.151376939207083</v>
+        <v>0.6426427683739604</v>
       </c>
       <c r="J17">
-        <v>0.3012771522131885</v>
+        <v>0.198971406821812</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>10.80051555282938</v>
+        <v>3.94211849064385</v>
       </c>
       <c r="O17">
-        <v>4.826238160428943</v>
+        <v>2.834405460557264</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,28 +1176,28 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.02797260213009167</v>
+        <v>0.008915170754271173</v>
       </c>
       <c r="D18">
-        <v>0.1712754834085075</v>
+        <v>0.2350225360989384</v>
       </c>
       <c r="E18">
-        <v>0.2073680433203862</v>
+        <v>0.1835626944836335</v>
       </c>
       <c r="F18">
-        <v>1.846420208313873</v>
+        <v>1.230649981622676</v>
       </c>
       <c r="G18">
-        <v>1.492955121031002</v>
+        <v>0.7218034608712856</v>
       </c>
       <c r="H18">
-        <v>0.7583062113547783</v>
+        <v>0.6824727215651478</v>
       </c>
       <c r="I18">
-        <v>1.122621849976468</v>
+        <v>0.6360882161767165</v>
       </c>
       <c r="J18">
-        <v>0.2939454065040508</v>
+        <v>0.197412481688545</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>10.55149949033284</v>
+        <v>3.857331695637754</v>
       </c>
       <c r="O18">
-        <v>4.706638978077365</v>
+        <v>2.807569719244327</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,28 +1223,28 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.02772542620426321</v>
+        <v>0.008841926462054062</v>
       </c>
       <c r="D19">
-        <v>0.1702158264431688</v>
+        <v>0.2348620939325912</v>
       </c>
       <c r="E19">
-        <v>0.2057602839111183</v>
+        <v>0.1832490829698941</v>
       </c>
       <c r="F19">
-        <v>1.830962955427523</v>
+        <v>1.227277733275628</v>
       </c>
       <c r="G19">
-        <v>1.479697005039299</v>
+        <v>0.7186785153292305</v>
       </c>
       <c r="H19">
-        <v>0.7524690391589957</v>
+        <v>0.6813228456936713</v>
       </c>
       <c r="I19">
-        <v>1.112917548920365</v>
+        <v>0.6338747763726786</v>
       </c>
       <c r="J19">
-        <v>0.2914721224491785</v>
+        <v>0.1968865085890883</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>10.4671646587006</v>
+        <v>3.828614786363971</v>
       </c>
       <c r="O19">
-        <v>4.666280650396118</v>
+        <v>2.798509342108559</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,28 +1270,28 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.0288391625016331</v>
+        <v>0.009171426163170793</v>
       </c>
       <c r="D20">
-        <v>0.1750025460164011</v>
+        <v>0.2355907144344798</v>
       </c>
       <c r="E20">
-        <v>0.2130200359753758</v>
+        <v>0.1846667005584735</v>
       </c>
       <c r="F20">
-        <v>1.900734458581312</v>
+        <v>1.242497593576758</v>
       </c>
       <c r="G20">
-        <v>1.539528067406394</v>
+        <v>0.7327671101403723</v>
       </c>
       <c r="H20">
-        <v>0.7788258418169107</v>
+        <v>0.6865204453715421</v>
       </c>
       <c r="I20">
-        <v>1.15671418803835</v>
+        <v>0.6438586334458734</v>
       </c>
       <c r="J20">
-        <v>0.3026385040368496</v>
+        <v>0.1992608089660024</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>10.84659223998074</v>
+        <v>3.957806003281064</v>
       </c>
       <c r="O20">
-        <v>4.848439033041871</v>
+        <v>2.839384384731829</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,28 +1317,28 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.03260840596625059</v>
+        <v>0.01027661655066225</v>
       </c>
       <c r="D21">
-        <v>0.1914212762422522</v>
+        <v>0.2381543934126569</v>
       </c>
       <c r="E21">
-        <v>0.2378731910663348</v>
+        <v>0.1895405312281895</v>
       </c>
       <c r="F21">
-        <v>2.13914579595108</v>
+        <v>1.294411123941259</v>
       </c>
       <c r="G21">
-        <v>1.743728322278542</v>
+        <v>0.7805585862729743</v>
       </c>
       <c r="H21">
-        <v>0.8690448297481908</v>
+        <v>0.7043866263950349</v>
       </c>
       <c r="I21">
-        <v>1.306243315316138</v>
+        <v>0.6778082303904114</v>
       </c>
       <c r="J21">
-        <v>0.3408394802568608</v>
+        <v>0.2073671826047132</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>12.11986155709377</v>
+        <v>4.391158149571311</v>
       </c>
       <c r="O21">
-        <v>5.470666099668108</v>
+        <v>2.978511557254706</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,28 +1364,28 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.03509522257303388</v>
+        <v>0.01099752128996556</v>
       </c>
       <c r="D22">
-        <v>0.2024258483466355</v>
+        <v>0.2399159389027687</v>
       </c>
       <c r="E22">
-        <v>0.2544982658880315</v>
+        <v>0.192808511755473</v>
       </c>
       <c r="F22">
-        <v>2.298287342000179</v>
+        <v>1.32891918798984</v>
       </c>
       <c r="G22">
-        <v>1.879852782557293</v>
+        <v>0.812133784576929</v>
       </c>
       <c r="H22">
-        <v>0.9293868558115719</v>
+        <v>0.7163634517991682</v>
       </c>
       <c r="I22">
-        <v>1.405959138763677</v>
+        <v>0.7002987435781307</v>
       </c>
       <c r="J22">
-        <v>0.3663764915064149</v>
+        <v>0.2127615894427208</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>12.95085643057945</v>
+        <v>4.673791817957863</v>
       </c>
       <c r="O22">
-        <v>5.885857323427672</v>
+        <v>3.070777365247523</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,28 +1411,28 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.03376561426868818</v>
+        <v>0.01061288889831502</v>
       </c>
       <c r="D23">
-        <v>0.1965258504415033</v>
+        <v>0.2389679055612106</v>
       </c>
       <c r="E23">
-        <v>0.2455876170003322</v>
+        <v>0.1910567634459497</v>
       </c>
       <c r="F23">
-        <v>2.213022409854588</v>
+        <v>1.310448518602954</v>
       </c>
       <c r="G23">
-        <v>1.806936255644757</v>
+        <v>0.7952502651589839</v>
       </c>
       <c r="H23">
-        <v>0.8970456909072482</v>
+        <v>0.709943727824367</v>
       </c>
       <c r="I23">
-        <v>1.352542232611881</v>
+        <v>0.6882674244892684</v>
       </c>
       <c r="J23">
-        <v>0.3526905985059443</v>
+        <v>0.2098736547900302</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>12.50744471934257</v>
+        <v>4.523002190005457</v>
       </c>
       <c r="O23">
-        <v>5.663419007603295</v>
+        <v>3.021410791055587</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,28 +1458,28 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.02877790651581336</v>
+        <v>0.009153338706482828</v>
       </c>
       <c r="D24">
-        <v>0.174738475493001</v>
+        <v>0.2355502667882376</v>
       </c>
       <c r="E24">
-        <v>0.2126197221981627</v>
+        <v>0.184588434949049</v>
       </c>
       <c r="F24">
-        <v>1.896888792939777</v>
+        <v>1.241658870283544</v>
       </c>
       <c r="G24">
-        <v>1.536231212378425</v>
+        <v>0.7319917200247232</v>
       </c>
       <c r="H24">
-        <v>0.7773725296341638</v>
+        <v>0.6862335018541046</v>
       </c>
       <c r="I24">
-        <v>1.154300665568073</v>
+        <v>0.6433088445505888</v>
       </c>
       <c r="J24">
-        <v>0.3020228766924191</v>
+        <v>0.1991299388575101</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>10.82576172529139</v>
+        <v>3.950713976768498</v>
       </c>
       <c r="O24">
-        <v>4.838399644360436</v>
+        <v>2.837132984039215</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,28 +1505,28 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.02347878567628214</v>
+        <v>0.007572937895453435</v>
       </c>
       <c r="D25">
-        <v>0.1522656025071996</v>
+        <v>0.2322340231463187</v>
       </c>
       <c r="E25">
-        <v>0.1784591592642855</v>
+        <v>0.1779658061177756</v>
       </c>
       <c r="F25">
-        <v>1.567951977915399</v>
+        <v>1.169942548261744</v>
       </c>
       <c r="G25">
-        <v>1.25380069246583</v>
+        <v>0.6652128538278532</v>
       </c>
       <c r="H25">
-        <v>0.6533353259633543</v>
+        <v>0.6619476978387411</v>
       </c>
       <c r="I25">
-        <v>0.9476458539821948</v>
+        <v>0.5961090942241327</v>
       </c>
       <c r="J25">
-        <v>0.249435840191822</v>
+        <v>0.1879534732702695</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1538,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>9.00683856119241</v>
+        <v>3.331249627311138</v>
       </c>
       <c r="O25">
-        <v>3.979286828283648</v>
+        <v>2.644090394289606</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_247/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_247/res_line/pl_mw.xlsx
@@ -424,28 +424,28 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.006403796807916251</v>
+        <v>0.01962606456504545</v>
       </c>
       <c r="D2">
-        <v>0.230110852657134</v>
+        <v>0.1364521209964238</v>
       </c>
       <c r="E2">
-        <v>0.1733927365998476</v>
+        <v>0.1542679940426304</v>
       </c>
       <c r="F2">
-        <v>1.119256496137453</v>
+        <v>1.333885572714649</v>
       </c>
       <c r="G2">
-        <v>0.6172754033872252</v>
+        <v>1.052166218488694</v>
       </c>
       <c r="H2">
-        <v>0.6451706849114487</v>
+        <v>0.5654695191386736</v>
       </c>
       <c r="I2">
-        <v>0.5624574055654961</v>
+        <v>0.8002792359095778</v>
       </c>
       <c r="J2">
-        <v>0.1800749562412989</v>
+        <v>0.2121059360334812</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -457,10 +457,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>2.873581687696344</v>
+        <v>7.66312166460591</v>
       </c>
       <c r="O2">
-        <v>2.506829514151661</v>
+        <v>3.367321455222509</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,28 +471,28 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.00560789120331151</v>
+        <v>0.01703626277236125</v>
       </c>
       <c r="D3">
-        <v>0.2288708407612177</v>
+        <v>0.126125023316952</v>
       </c>
       <c r="E3">
-        <v>0.1704818582526286</v>
+        <v>0.1383647276401057</v>
       </c>
       <c r="F3">
-        <v>1.08621936351328</v>
+        <v>1.179329685780743</v>
       </c>
       <c r="G3">
-        <v>0.5855465827598323</v>
+        <v>0.9186100593240525</v>
       </c>
       <c r="H3">
-        <v>0.6344879103896659</v>
+        <v>0.5076915398488211</v>
       </c>
       <c r="I3">
-        <v>0.5403325584105687</v>
+        <v>0.7027830218377034</v>
       </c>
       <c r="J3">
-        <v>0.1749525151808271</v>
+        <v>0.1875022668461241</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -504,10 +504,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>2.562605684679454</v>
+        <v>6.749683652115209</v>
       </c>
       <c r="O3">
-        <v>2.416823902178777</v>
+        <v>2.962819850401189</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,28 +518,28 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.005117407016864917</v>
+        <v>0.01545375050779896</v>
       </c>
       <c r="D4">
-        <v>0.2282076702264249</v>
+        <v>0.1199561620908298</v>
       </c>
       <c r="E4">
-        <v>0.1687872790564349</v>
+        <v>0.1288100020272758</v>
       </c>
       <c r="F4">
-        <v>1.06658017747624</v>
+        <v>1.08614270720598</v>
       </c>
       <c r="G4">
-        <v>0.5664367015796472</v>
+        <v>0.8378786097029121</v>
       </c>
       <c r="H4">
-        <v>0.6282672455485283</v>
+        <v>0.4729719236215857</v>
       </c>
       <c r="I4">
-        <v>0.5270823313488435</v>
+        <v>0.6439081385830789</v>
       </c>
       <c r="J4">
-        <v>0.1719137970435156</v>
+        <v>0.1726870845304092</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -551,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>2.371325805375761</v>
+        <v>6.187481969422947</v>
       </c>
       <c r="O4">
-        <v>2.363042203959907</v>
+        <v>2.718720740370514</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,28 +565,28 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.004917077860181251</v>
+        <v>0.0148103968396498</v>
       </c>
       <c r="D5">
-        <v>0.2279621468700697</v>
+        <v>0.1174827783791059</v>
       </c>
       <c r="E5">
-        <v>0.1681200324150822</v>
+        <v>0.124964729436897</v>
       </c>
       <c r="F5">
-        <v>1.058739344460022</v>
+        <v>1.048557728226314</v>
       </c>
       <c r="G5">
-        <v>0.5587425543045583</v>
+        <v>0.8052652632513855</v>
       </c>
       <c r="H5">
-        <v>0.6258174501460019</v>
+        <v>0.4589976515167962</v>
       </c>
       <c r="I5">
-        <v>0.5217667888827435</v>
+        <v>0.6201395372169074</v>
       </c>
       <c r="J5">
-        <v>0.1707022290644034</v>
+        <v>0.166716071218481</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>2.293303068607429</v>
+        <v>5.958052239810399</v>
       </c>
       <c r="O5">
-        <v>2.341498059993626</v>
+        <v>2.620214462438497</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,28 +612,28 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.004883785960444698</v>
+        <v>0.01470365009149432</v>
       </c>
       <c r="D6">
-        <v>0.2279228720741955</v>
+        <v>0.1170744414886329</v>
       </c>
       <c r="E6">
-        <v>0.1680106442375404</v>
+        <v>0.1243290207955141</v>
       </c>
       <c r="F6">
-        <v>1.057447179963972</v>
+        <v>1.042339149849525</v>
       </c>
       <c r="G6">
-        <v>0.5574705755689706</v>
+        <v>0.7998661060184986</v>
       </c>
       <c r="H6">
-        <v>0.6254158088869843</v>
+        <v>0.4566873119652257</v>
       </c>
       <c r="I6">
-        <v>0.5208892200426121</v>
+        <v>0.6162055667925159</v>
       </c>
       <c r="J6">
-        <v>0.1705026626185386</v>
+        <v>0.1657283958390821</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -645,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>2.280343261403573</v>
+        <v>5.919936152110608</v>
       </c>
       <c r="O6">
-        <v>2.337943149268625</v>
+        <v>2.603912923378402</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,28 +659,28 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.005114707143540898</v>
+        <v>0.01544506830605386</v>
       </c>
       <c r="D7">
-        <v>0.2282042588650839</v>
+        <v>0.1199226448354267</v>
       </c>
       <c r="E7">
-        <v>0.1687781859671063</v>
+        <v>0.1287579532146346</v>
       </c>
       <c r="F7">
-        <v>1.066473776248586</v>
+        <v>1.085634298140491</v>
       </c>
       <c r="G7">
-        <v>0.5663325581709415</v>
+        <v>0.8374376634495064</v>
       </c>
       <c r="H7">
-        <v>0.6282338618372876</v>
+        <v>0.4727827764819921</v>
       </c>
       <c r="I7">
-        <v>0.5270103039531904</v>
+        <v>0.6435867144619891</v>
       </c>
       <c r="J7">
-        <v>0.1718973492214459</v>
+        <v>0.1726062979046077</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>2.370273851395496</v>
+        <v>6.184389112219662</v>
       </c>
       <c r="O7">
-        <v>2.362750145009358</v>
+        <v>2.717388474901782</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,28 +706,28 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.006129739967860814</v>
+        <v>0.01873127590629053</v>
       </c>
       <c r="D8">
-        <v>0.2296629320517383</v>
+        <v>0.1328539086679825</v>
       </c>
       <c r="E8">
-        <v>0.1723698189764029</v>
+        <v>0.1487382140461548</v>
       </c>
       <c r="F8">
-        <v>1.107731204184702</v>
+        <v>1.280214222202005</v>
       </c>
       <c r="G8">
-        <v>0.606258023174135</v>
+        <v>1.005830380143095</v>
       </c>
       <c r="H8">
-        <v>0.6414170012355669</v>
+        <v>0.5453807881735599</v>
       </c>
       <c r="I8">
-        <v>0.5547592695330081</v>
+        <v>0.7664418244421967</v>
       </c>
       <c r="J8">
-        <v>0.1782866114387289</v>
+        <v>0.2035577038426979</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -739,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>2.766433886209654</v>
+        <v>7.348453399592699</v>
       </c>
       <c r="O8">
-        <v>2.475487718664709</v>
+        <v>3.226897329356063</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,28 +753,28 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.008106133743240207</v>
+        <v>0.02525488195590953</v>
       </c>
       <c r="D9">
-        <v>0.2333016362265568</v>
+        <v>0.1597121884053792</v>
       </c>
       <c r="E9">
-        <v>0.1801494517381812</v>
+        <v>0.1898015697378028</v>
       </c>
       <c r="F9">
-        <v>1.19377010631348</v>
+        <v>1.677350818635674</v>
       </c>
       <c r="G9">
-        <v>0.6875148270819125</v>
+        <v>1.347836228098174</v>
       </c>
       <c r="H9">
-        <v>0.6699565692533156</v>
+        <v>0.6945242645959979</v>
       </c>
       <c r="I9">
-        <v>0.6118365369392933</v>
+        <v>1.01642636797969</v>
       </c>
       <c r="J9">
-        <v>0.1916635588980853</v>
+        <v>0.2669096311767589</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>3.540180268007646</v>
+        <v>9.620230281550675</v>
       </c>
       <c r="O9">
-        <v>2.708356419458028</v>
+        <v>4.265110199506751</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,28 +800,28 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.009549956766697676</v>
+        <v>0.03012429179827336</v>
       </c>
       <c r="D10">
-        <v>0.2364487660971122</v>
+        <v>0.1805635264907721</v>
       </c>
       <c r="E10">
-        <v>0.1863161131496511</v>
+        <v>0.2214454328505013</v>
       </c>
       <c r="F10">
-        <v>1.260133648751889</v>
+        <v>1.981631596224886</v>
       </c>
       <c r="G10">
-        <v>0.7490460878954934</v>
+        <v>1.60885702092321</v>
       </c>
       <c r="H10">
-        <v>0.6925673311482115</v>
+        <v>0.8094125914019799</v>
       </c>
       <c r="I10">
-        <v>0.6554091411255314</v>
+        <v>1.207472914933092</v>
       </c>
       <c r="J10">
-        <v>0.2020134014543089</v>
+        <v>0.3155930331531636</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>4.10623028343673</v>
+        <v>11.28258838837536</v>
       </c>
       <c r="O10">
-        <v>2.886696899377966</v>
+        <v>5.059606198119695</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,28 +847,28 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.01020508346777405</v>
+        <v>0.03236286667690536</v>
       </c>
       <c r="D11">
-        <v>0.23798325338295</v>
+        <v>0.190341902411717</v>
       </c>
       <c r="E11">
-        <v>0.1892198975435875</v>
+        <v>0.2362412930696038</v>
       </c>
       <c r="F11">
-        <v>1.291013430937312</v>
+        <v>2.123510823174229</v>
       </c>
       <c r="G11">
-        <v>0.7774419290807373</v>
+        <v>1.73034741115282</v>
       </c>
       <c r="H11">
-        <v>0.7032114214596277</v>
+        <v>0.8631213942634872</v>
       </c>
       <c r="I11">
-        <v>0.6755907234695968</v>
+        <v>1.296442731446334</v>
       </c>
       <c r="J11">
-        <v>0.2068362859218951</v>
+        <v>0.3383321758223872</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>4.363110593465422</v>
+        <v>12.03742316731763</v>
       </c>
       <c r="O11">
-        <v>2.969418359925953</v>
+        <v>5.429869467823607</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,28 +894,28 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.01045292532636211</v>
+        <v>0.03321452804956238</v>
       </c>
       <c r="D12">
-        <v>0.2385790925780924</v>
+        <v>0.1940913605940011</v>
       </c>
       <c r="E12">
-        <v>0.1903336766724024</v>
+        <v>0.241909057011469</v>
       </c>
       <c r="F12">
-        <v>1.302806358558584</v>
+        <v>2.177801897100409</v>
       </c>
       <c r="G12">
-        <v>0.7882532541530907</v>
+        <v>1.776805665613921</v>
       </c>
       <c r="H12">
-        <v>0.7072936193178236</v>
+        <v>0.8836938801844667</v>
       </c>
       <c r="I12">
-        <v>0.6832849390733458</v>
+        <v>1.330471298010622</v>
       </c>
       <c r="J12">
-        <v>0.2086791464770243</v>
+        <v>0.3470398068300398</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>4.460285735714251</v>
+        <v>12.32306348037548</v>
       </c>
       <c r="O12">
-        <v>3.000972727489909</v>
+        <v>5.571527449186078</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,28 +941,28 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.01039955883162946</v>
+        <v>0.03303092147901765</v>
       </c>
       <c r="D13">
-        <v>0.2384501118139468</v>
+        <v>0.1932816997922373</v>
       </c>
       <c r="E13">
-        <v>0.1900931736462894</v>
+        <v>0.2406853940052258</v>
       </c>
       <c r="F13">
-        <v>1.300262116966209</v>
+        <v>2.166083104807356</v>
       </c>
       <c r="G13">
-        <v>0.7859222396498353</v>
+        <v>1.76677896107887</v>
       </c>
       <c r="H13">
-        <v>0.7064121542274222</v>
+        <v>0.8792523695325656</v>
       </c>
       <c r="I13">
-        <v>0.6816255428246905</v>
+        <v>1.323126924831698</v>
       </c>
       <c r="J13">
-        <v>0.2082815171670092</v>
+        <v>0.3451599611293688</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>4.439361943450422</v>
+        <v>12.26155457991871</v>
       </c>
       <c r="O13">
-        <v>2.994166714265816</v>
+        <v>5.540951523195474</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,28 +988,28 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.01022547838171306</v>
+        <v>0.03243285044000288</v>
       </c>
       <c r="D14">
-        <v>0.238031977726834</v>
+        <v>0.1906494116751389</v>
       </c>
       <c r="E14">
-        <v>0.1893112446014342</v>
+        <v>0.236706239002821</v>
       </c>
       <c r="F14">
-        <v>1.291981648967194</v>
+        <v>2.127965663838381</v>
       </c>
       <c r="G14">
-        <v>0.7783302109860131</v>
+        <v>1.734160146151652</v>
       </c>
       <c r="H14">
-        <v>0.7035462340550964</v>
+        <v>0.864809053518286</v>
       </c>
       <c r="I14">
-        <v>0.6762226907580953</v>
+        <v>1.299235266156799</v>
       </c>
       <c r="J14">
-        <v>0.2069875674365846</v>
+        <v>0.3390465474962241</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1021,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>4.371107314139522</v>
+        <v>12.06092695796548</v>
       </c>
       <c r="O14">
-        <v>2.97200975396953</v>
+        <v>5.441493683473311</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,28 +1035,28 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.01011881778805446</v>
+        <v>0.03206704882557432</v>
       </c>
       <c r="D15">
-        <v>0.2377777802140173</v>
+        <v>0.1890432671140303</v>
       </c>
       <c r="E15">
-        <v>0.188834137283223</v>
+        <v>0.2342775689434902</v>
       </c>
       <c r="F15">
-        <v>1.286922574371943</v>
+        <v>2.104693235455983</v>
       </c>
       <c r="G15">
-        <v>0.7736874903795297</v>
+        <v>1.714240887079711</v>
       </c>
       <c r="H15">
-        <v>0.7017974830692708</v>
+        <v>0.8559934173959789</v>
       </c>
       <c r="I15">
-        <v>0.6729200480567812</v>
+        <v>1.284646190947981</v>
       </c>
       <c r="J15">
-        <v>0.2061971411045818</v>
+        <v>0.3353148745570707</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>4.329286057409945</v>
+        <v>11.93801081193675</v>
       </c>
       <c r="O15">
-        <v>2.958467881712068</v>
+        <v>5.380766863922872</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,28 +1082,28 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.00950710902657903</v>
+        <v>0.0299785169707647</v>
       </c>
       <c r="D16">
-        <v>0.2363505509288757</v>
+        <v>0.1799307554859126</v>
       </c>
       <c r="E16">
-        <v>0.1861283276523835</v>
+        <v>0.2204871600958498</v>
       </c>
       <c r="F16">
-        <v>1.258129489543307</v>
+        <v>1.972434665343997</v>
       </c>
       <c r="G16">
-        <v>0.7471985191326098</v>
+        <v>1.600977436909545</v>
       </c>
       <c r="H16">
-        <v>0.6918789240660317</v>
+        <v>0.8059338722566451</v>
       </c>
       <c r="I16">
-        <v>0.6540974831536914</v>
+        <v>1.201703448159705</v>
       </c>
       <c r="J16">
-        <v>0.2017005264407175</v>
+        <v>0.3141198699824486</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>4.089429168003562</v>
+        <v>11.23323027560713</v>
       </c>
       <c r="O16">
-        <v>2.881322956879842</v>
+        <v>5.035601217690498</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,28 +1129,28 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.009131416756979149</v>
+        <v>0.02870368295237569</v>
       </c>
       <c r="D17">
-        <v>0.2355013134694843</v>
+        <v>0.1744186258094373</v>
       </c>
       <c r="E17">
-        <v>0.1844936458195647</v>
+        <v>0.2121348224915636</v>
       </c>
       <c r="F17">
-        <v>1.240642838012093</v>
+        <v>1.892230289843212</v>
       </c>
       <c r="G17">
-        <v>0.7310522582826877</v>
+        <v>1.532237379332514</v>
       </c>
       <c r="H17">
-        <v>0.6858859766674641</v>
+        <v>0.7756121274908594</v>
       </c>
       <c r="I17">
-        <v>0.6426427683739604</v>
+        <v>1.151376939207097</v>
       </c>
       <c r="J17">
-        <v>0.198971406821812</v>
+        <v>0.3012771522131317</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>3.94211849064385</v>
+        <v>10.80051555282944</v>
       </c>
       <c r="O17">
-        <v>2.834405460557264</v>
+        <v>4.826238160428943</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,28 +1176,28 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.008915170754271173</v>
+        <v>0.0279726021302622</v>
       </c>
       <c r="D18">
-        <v>0.2350225360989384</v>
+        <v>0.1712754834086212</v>
       </c>
       <c r="E18">
-        <v>0.1835626944836335</v>
+        <v>0.2073680433204217</v>
       </c>
       <c r="F18">
-        <v>1.230649981622676</v>
+        <v>1.846420208313887</v>
       </c>
       <c r="G18">
-        <v>0.7218034608712856</v>
+        <v>1.492955121031059</v>
       </c>
       <c r="H18">
-        <v>0.6824727215651478</v>
+        <v>0.7583062113547498</v>
       </c>
       <c r="I18">
-        <v>0.6360882161767165</v>
+        <v>1.122621849976468</v>
       </c>
       <c r="J18">
-        <v>0.197412481688545</v>
+        <v>0.2939454065040934</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>3.857331695637754</v>
+        <v>10.55149949033301</v>
       </c>
       <c r="O18">
-        <v>2.807569719244327</v>
+        <v>4.706638978077365</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,28 +1223,28 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.008841926462054062</v>
+        <v>0.02772542620438401</v>
       </c>
       <c r="D19">
-        <v>0.2348620939325912</v>
+        <v>0.1702158264431546</v>
       </c>
       <c r="E19">
-        <v>0.1832490829698941</v>
+        <v>0.2057602839111681</v>
       </c>
       <c r="F19">
-        <v>1.227277733275628</v>
+        <v>1.830962955427523</v>
       </c>
       <c r="G19">
-        <v>0.7186785153292305</v>
+        <v>1.479697005039327</v>
       </c>
       <c r="H19">
-        <v>0.6813228456936713</v>
+        <v>0.752469039158882</v>
       </c>
       <c r="I19">
-        <v>0.6338747763726786</v>
+        <v>1.112917548920365</v>
       </c>
       <c r="J19">
-        <v>0.1968865085890883</v>
+        <v>0.2914721224491643</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>3.828614786363971</v>
+        <v>10.4671646587006</v>
       </c>
       <c r="O19">
-        <v>2.798509342108559</v>
+        <v>4.666280650396118</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,28 +1270,28 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.009171426163170793</v>
+        <v>0.02883916250181073</v>
       </c>
       <c r="D20">
-        <v>0.2355907144344798</v>
+        <v>0.1750025460163016</v>
       </c>
       <c r="E20">
-        <v>0.1846667005584735</v>
+        <v>0.2130200359754042</v>
       </c>
       <c r="F20">
-        <v>1.242497593576758</v>
+        <v>1.900734458581312</v>
       </c>
       <c r="G20">
-        <v>0.7327671101403723</v>
+        <v>1.539528067406422</v>
       </c>
       <c r="H20">
-        <v>0.6865204453715421</v>
+        <v>0.7788258418169391</v>
       </c>
       <c r="I20">
-        <v>0.6438586334458734</v>
+        <v>1.156714188038364</v>
       </c>
       <c r="J20">
-        <v>0.1992608089660024</v>
+        <v>0.3026385040368353</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>3.957806003281064</v>
+        <v>10.84659223998074</v>
       </c>
       <c r="O20">
-        <v>2.839384384731829</v>
+        <v>4.848439033041871</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,28 +1317,28 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.01027661655066225</v>
+        <v>0.03260840596654901</v>
       </c>
       <c r="D21">
-        <v>0.2381543934126569</v>
+        <v>0.1914212762422665</v>
       </c>
       <c r="E21">
-        <v>0.1895405312281895</v>
+        <v>0.237873191066349</v>
       </c>
       <c r="F21">
-        <v>1.294411123941259</v>
+        <v>2.13914579595108</v>
       </c>
       <c r="G21">
-        <v>0.7805585862729743</v>
+        <v>1.743728322278486</v>
       </c>
       <c r="H21">
-        <v>0.7043866263950349</v>
+        <v>0.8690448297481908</v>
       </c>
       <c r="I21">
-        <v>0.6778082303904114</v>
+        <v>1.306243315316138</v>
       </c>
       <c r="J21">
-        <v>0.2073671826047132</v>
+        <v>0.340839480256875</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>4.391158149571311</v>
+        <v>12.11986155709377</v>
       </c>
       <c r="O21">
-        <v>2.978511557254706</v>
+        <v>5.470666099668051</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,28 +1364,28 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.01099752128996556</v>
+        <v>0.03509522257343178</v>
       </c>
       <c r="D22">
-        <v>0.2399159389027687</v>
+        <v>0.2024258483465076</v>
       </c>
       <c r="E22">
-        <v>0.192808511755473</v>
+        <v>0.2544982658880315</v>
       </c>
       <c r="F22">
-        <v>1.32891918798984</v>
+        <v>2.298287342000194</v>
       </c>
       <c r="G22">
-        <v>0.812133784576929</v>
+        <v>1.879852782557293</v>
       </c>
       <c r="H22">
-        <v>0.7163634517991682</v>
+        <v>0.9293868558115719</v>
       </c>
       <c r="I22">
-        <v>0.7002987435781307</v>
+        <v>1.405959138763663</v>
       </c>
       <c r="J22">
-        <v>0.2127615894427208</v>
+        <v>0.3663764915063297</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>4.673791817957863</v>
+        <v>12.95085643057962</v>
       </c>
       <c r="O22">
-        <v>3.070777365247523</v>
+        <v>5.885857323427672</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,28 +1411,28 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.01061288889831502</v>
+        <v>0.03376561426872371</v>
       </c>
       <c r="D23">
-        <v>0.2389679055612106</v>
+        <v>0.1965258504413896</v>
       </c>
       <c r="E23">
-        <v>0.1910567634459497</v>
+        <v>0.2455876170003322</v>
       </c>
       <c r="F23">
-        <v>1.310448518602954</v>
+        <v>2.213022409854588</v>
       </c>
       <c r="G23">
-        <v>0.7952502651589839</v>
+        <v>1.806936255644814</v>
       </c>
       <c r="H23">
-        <v>0.709943727824367</v>
+        <v>0.8970456909072482</v>
       </c>
       <c r="I23">
-        <v>0.6882674244892684</v>
+        <v>1.352542232611881</v>
       </c>
       <c r="J23">
-        <v>0.2098736547900302</v>
+        <v>0.3526905985058875</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>4.523002190005457</v>
+        <v>12.50744471934257</v>
       </c>
       <c r="O23">
-        <v>3.021410791055587</v>
+        <v>5.663419007603295</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,28 +1458,28 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.009153338706482828</v>
+        <v>0.02877790651563572</v>
       </c>
       <c r="D24">
-        <v>0.2355502667882376</v>
+        <v>0.1747384754929868</v>
       </c>
       <c r="E24">
-        <v>0.184588434949049</v>
+        <v>0.2126197221981343</v>
       </c>
       <c r="F24">
-        <v>1.241658870283544</v>
+        <v>1.896888792939777</v>
       </c>
       <c r="G24">
-        <v>0.7319917200247232</v>
+        <v>1.536231212378397</v>
       </c>
       <c r="H24">
-        <v>0.6862335018541046</v>
+        <v>0.7773725296341638</v>
       </c>
       <c r="I24">
-        <v>0.6433088445505888</v>
+        <v>1.154300665568073</v>
       </c>
       <c r="J24">
-        <v>0.1991299388575101</v>
+        <v>0.3020228766924049</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>3.950713976768498</v>
+        <v>10.82576172529139</v>
       </c>
       <c r="O24">
-        <v>2.837132984039215</v>
+        <v>4.838399644360436</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,28 +1505,28 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.007572937895453435</v>
+        <v>0.02347878567616846</v>
       </c>
       <c r="D25">
-        <v>0.2322340231463187</v>
+        <v>0.1522656025073132</v>
       </c>
       <c r="E25">
-        <v>0.1779658061177756</v>
+        <v>0.1784591592642712</v>
       </c>
       <c r="F25">
-        <v>1.169942548261744</v>
+        <v>1.567951977915399</v>
       </c>
       <c r="G25">
-        <v>0.6652128538278532</v>
+        <v>1.25380069246583</v>
       </c>
       <c r="H25">
-        <v>0.6619476978387411</v>
+        <v>0.653335325963468</v>
       </c>
       <c r="I25">
-        <v>0.5961090942241327</v>
+        <v>0.9476458539821948</v>
       </c>
       <c r="J25">
-        <v>0.1879534732702695</v>
+        <v>0.2494358401918504</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1538,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>3.331249627311138</v>
+        <v>9.00683856119241</v>
       </c>
       <c r="O25">
-        <v>2.644090394289606</v>
+        <v>3.979286828283648</v>
       </c>
     </row>
   </sheetData>
